--- a/pred_ohlcv/54_21/2019-11-02 ANKR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 ANKR ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>-1409180.2942</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1409180.2942</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1409180.2942</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-2823386.1469</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-2842710.5145</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-2838109.5551</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-2820497.5551</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-3045497.5551</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-3045497.5551</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-3045487.5551</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-1130563.8228</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-1220645.8228</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-1508602.0607</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-1508592.0607</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1569938.3669</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1569938.3669</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1569938.3669</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1569928.3669</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-1583226.6214</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-1583226.6214</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-1583226.6214</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1583226.6214</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1583226.6214</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1643017.2407</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1643017.2407</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1643017.2407</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1408875.1838</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1411104.3209</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1411104.3209</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-1301486.4533</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-1301486.4533</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-1301486.4533</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1317785.4729</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1317785.4729</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1309152.48</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1321310.4135</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1321320.4135</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-959836.9044000005</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-959836.9044000005</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-959836.9044000005</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-139860.5738000005</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1197344.517099999</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>7482825.979599999</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>7466701.118499999</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>7612866.048899999</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>7562866.048899999</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>7562866.048899999</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>10001149.5832</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>10001149.5832</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>9184620.480299998</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>9184620.480299998</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>10153944.2114</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>10153944.2114</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>10330495.0705</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>10330495.0705</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>10713718.6418</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>10677265.6389</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>10794761.4633</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>10523373.7127</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>10523373.7127</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>10518172.6711</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>10049656.4394</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>10067288.8182</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>11910553.86959999</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>11882921.58319999</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>11882932.58319999</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>10771821.58319999</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>10771821.58319999</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>10520542.76329999</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>10987637.01719999</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>10987637.01719999</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>17105760.0745</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>18138305.9438</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>22578669.48340323</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>21662928.1054974</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>23567229.77699741</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>23567229.77699741</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>23490158.53649741</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>23397964.2374974</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>23397964.2374974</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>23397964.2374974</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>23397964.2374974</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>23268684.2373974</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>23194979.3941974</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>23194979.3941974</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>23986727.1692974</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>23986727.1692974</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>23365123.6934974</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>23367133.6934974</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>23261411.1027974</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>22309987.1326974</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-02 ANKR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 ANKR ohlcv.xlsx
@@ -704,7 +704,7 @@
         <v>-2842710.5145</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-829848.8900000001</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-1569938.3669</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-1569938.3669</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-1569938.3669</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-1569928.3669</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-1583226.6214</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-1583226.6214</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1583300.8781</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-1643017.2407</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-1643017.2407</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-1643017.2407</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-1408875.1838</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-1411104.3209</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-1411104.3209</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-1311107.4635</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-1317785.4729</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1309152.48</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-959836.9044000005</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-959836.9044000005</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-139860.5738000005</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1197344.517099999</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>7482825.979599999</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>7466701.118499999</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>7612866.048899999</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>7562866.048899999</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>7562866.048899999</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>10001149.5832</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>10001149.5832</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>9184620.480299998</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>9184620.480299998</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>10153944.2114</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>10153944.2114</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>10330495.0705</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>10330495.0705</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>10713718.6418</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>10677265.6389</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>10794761.4633</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>10523373.7127</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>10523373.7127</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>10518172.6711</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>10049656.4394</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>10067288.8182</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>11910553.86959999</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>11882921.58319999</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>11882932.58319999</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>10771821.58319999</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>10771821.58319999</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>10520542.76329999</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>10987637.01719999</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>10987637.01719999</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>11503654.8879</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>14215441.1802</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>17105760.0745</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>18138305.9438</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>18133146.5388</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>17500566.5892</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>17478114.4849</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>17478114.4849</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>17570943.9755</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>17066133.9166</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>16946997.7106</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>16929494.02499999</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>16829494.02499999</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>17041205.0337</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>17039705.7837</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>20770333.46917785</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>22740002.75685162</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>22578669.48340323</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>21662928.1054974</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>21485580.26559741</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>23567229.77699741</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>23567229.77699741</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>23490158.53649741</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>23326082.3796974</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>23397964.2374974</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>23397964.2374974</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>23397964.2374974</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>23397964.2374974</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>23268684.2373974</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>23194979.3941974</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>23194979.3941974</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>23986727.1692974</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>23986727.1692974</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>23365123.6934974</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>23367133.6934974</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>23261411.1027974</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>22309987.1326974</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
